--- a/docs/Raw Data/MVC/Data Log 05.11.15.xlsx
+++ b/docs/Raw Data/MVC/Data Log 05.11.15.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\researchProject\docs\Raw Data\MVC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="630" yWindow="810" windowWidth="19575" windowHeight="7080" activeTab="3"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="Log5" sheetId="5" r:id="rId5"/>
     <sheet name="Log6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -63,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,17 +106,37 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -310,6 +335,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -509,6 +535,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -705,32 +732,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="42936192"/>
-        <c:axId val="42929536"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="319634624"/>
+        <c:axId val="404338240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42936192"/>
+        <c:axId val="319634624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42929536"/>
+        <c:crossAx val="404338240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42929536"/>
+        <c:axId val="404338240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42936192"/>
+        <c:crossAx val="319634624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -738,8 +780,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -751,12 +796,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1157,31 +1214,45 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="45527424"/>
-        <c:axId val="45493632"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="317821120"/>
+        <c:axId val="407353632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45527424"/>
+        <c:axId val="317821120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45493632"/>
+        <c:crossAx val="407353632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45493632"/>
+        <c:axId val="407353632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45527424"/>
+        <c:crossAx val="317821120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1189,8 +1260,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1308,7 +1382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1340,9 +1414,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1374,6 +1449,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1549,29 +1625,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1579,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1602,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9.7650001049041748</v>
       </c>
@@ -1625,7 +1701,7 @@
         <v>-4.9423076931236543E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>29.749000072479248</v>
       </c>
@@ -1648,7 +1724,7 @@
         <v>-0.12365181961150733</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>49.779000043869019</v>
       </c>
@@ -1671,7 +1747,7 @@
         <v>7.2419586395498184E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>69.763000011444092</v>
       </c>
@@ -1694,7 +1770,7 @@
         <v>7.2419586395498184E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>89.778000116348267</v>
       </c>
@@ -1717,7 +1793,7 @@
         <v>4.7868690718211315E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>109.80800008773804</v>
       </c>
@@ -1740,7 +1816,7 @@
         <v>1.099939026629543E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>129.82300019264221</v>
       </c>
@@ -1763,7 +1839,7 @@
         <v>3.6932065406997207E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>149.82200002670288</v>
       </c>
@@ -1786,7 +1862,7 @@
         <v>7.146933847614631E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>169.83700013160706</v>
       </c>
@@ -1809,7 +1885,7 @@
         <v>0.10997207723353472</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189.85199999809265</v>
       </c>
@@ -1832,7 +1908,7 @@
         <v>0.23695261368254453</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>209.8510000705719</v>
       </c>
@@ -1855,7 +1931,7 @@
         <v>0.29841523513045348</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>229.86600017547607</v>
       </c>
@@ -1878,7 +1954,7 @@
         <v>-6.1397967200906289E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>249.86500000953674</v>
       </c>
@@ -1901,7 +1977,7 @@
         <v>-7.5604550695203748E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>269.88000011444092</v>
       </c>
@@ -1924,7 +2000,7 @@
         <v>-4.4175817414355854E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>289.89499998092651</v>
       </c>
@@ -1947,7 +2023,7 @@
         <v>-5.550866890568644E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>309.91000008583069</v>
       </c>
@@ -1970,7 +2046,7 @@
         <v>-6.3449804442763269E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>329.8970000743866</v>
       </c>
@@ -1999,19 +2075,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2019,7 +2095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2042,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9.7650001049041748</v>
       </c>
@@ -2065,7 +2141,7 @@
         <v>0.22700000005022794</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>29.765000104904175</v>
       </c>
@@ -2088,7 +2164,7 @@
         <v>0.25761073944309831</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>49.779999971389771</v>
       </c>
@@ -2111,7 +2187,7 @@
         <v>0.56068470619351385</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>69.779000043869019</v>
       </c>
@@ -2134,7 +2210,7 @@
         <v>0.76275358150069406</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>89.794000148773193</v>
       </c>
@@ -2157,7 +2233,7 @@
         <v>1.7753674140653655</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>109.79400014877319</v>
       </c>
@@ -2180,7 +2256,7 @@
         <v>2.5414532713676099</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>129.79299998283386</v>
       </c>
@@ -2203,7 +2279,7 @@
         <v>4.8857121423740537</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>149.79800009727478</v>
       </c>
@@ -2226,7 +2302,7 @@
         <v>8.3989239745768032</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>169.80299997329712</v>
       </c>
@@ -2249,7 +2325,7 @@
         <v>12.064261145614879</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>189.80700016021729</v>
       </c>
@@ -2272,7 +2348,7 @@
         <v>27.389562232722906</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>209.79700016975403</v>
       </c>
@@ -2295,7 +2371,7 @@
         <v>27.592403465964523</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>229.79500007629395</v>
       </c>
@@ -2318,7 +2394,7 @@
         <v>-62.112311092806181</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>249.84000015258789</v>
       </c>
@@ -2341,7 +2417,7 @@
         <v>-44.219118420172833</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>269.81200003623962</v>
       </c>
@@ -2364,7 +2440,7 @@
         <v>-8.3533120219465786</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>289.8270001411438</v>
       </c>
@@ -2387,7 +2463,7 @@
         <v>-2.216540811855694E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>309.8360002040863</v>
       </c>
@@ -2410,7 +2486,7 @@
         <v>-2.216540811855694E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>329.85800004005432</v>
       </c>
@@ -2433,7 +2509,7 @@
         <v>-2.216540811855694E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>349.84800004959106</v>
       </c>
@@ -2456,7 +2532,7 @@
         <v>-2.216540811855694E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>369.86100006103516</v>
       </c>
@@ -2479,7 +2555,7 @@
         <v>-2.216540811855694E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>389.86600017547607</v>
       </c>
@@ -2508,16 +2584,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2525,7 +2601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2542,7 +2618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9.7339999675750732</v>
       </c>
@@ -2559,7 +2635,7 @@
         <v>0.21448504983865391</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>39.743000030517578</v>
       </c>
@@ -2580,7 +2656,7 @@
         <v>83.860465116215636</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>69.75</v>
       </c>
@@ -2601,7 +2677,7 @@
         <v>83.999938730433271</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99.773999929428101</v>
       </c>
@@ -2622,7 +2698,7 @@
         <v>86.185494282324981</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>129.76999998092651</v>
       </c>
@@ -2643,7 +2719,7 @@
         <v>87.631918134126082</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>159.77999997138977</v>
       </c>
@@ -2664,7 +2740,7 @@
         <v>86.955877757102144</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>189.78900003433228</v>
       </c>
@@ -2685,7 +2761,7 @@
         <v>88.971736116686202</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>219.79500007629395</v>
       </c>
@@ -2706,7 +2782,7 @@
         <v>98.584156774690939</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>249.79999995231628</v>
       </c>
@@ -2727,7 +2803,7 @@
         <v>94.700515741876643</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>279.81399989128113</v>
       </c>
@@ -2748,7 +2824,7 @@
         <v>83.916441774134967</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>309.82399988174438</v>
       </c>
@@ -2769,7 +2845,7 @@
         <v>80.154606975727006</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>339.84999990463257</v>
       </c>
@@ -2790,7 +2866,7 @@
         <v>137.48967769607475</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>369.84800004959106</v>
       </c>
@@ -2811,7 +2887,7 @@
         <v>146.09585592685329</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>399.86500000953674</v>
       </c>
@@ -2832,7 +2908,7 @@
         <v>179.78102126719412</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>429.90700006484985</v>
       </c>
@@ -2853,7 +2929,7 @@
         <v>173.59204552703932</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>459.86400008201599</v>
       </c>
@@ -2874,7 +2950,7 @@
         <v>181.2801105465627</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>489.87899994850159</v>
       </c>
@@ -2895,7 +2971,7 @@
         <v>200.85283065874751</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>519.88700008392334</v>
       </c>
@@ -2916,7 +2992,7 @@
         <v>200.90221225123196</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>549.89499998092651</v>
       </c>
@@ -2937,7 +3013,7 @@
         <v>203.60088647003062</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>579.90199995040894</v>
       </c>
@@ -2958,7 +3034,7 @@
         <v>214.72769772254597</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>609.90799999237061</v>
       </c>
@@ -2979,7 +3055,7 @@
         <v>210.72079039315599</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>640.01099991798401</v>
       </c>
@@ -3000,7 +3076,7 @@
         <v>238.16433874736279</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>669.95499992370605</v>
       </c>
@@ -3021,7 +3097,7 @@
         <v>238.18869273942715</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>699.95000004768372</v>
       </c>
@@ -3042,7 +3118,7 @@
         <v>239.45907285576055</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>729.96099996566772</v>
       </c>
@@ -3063,7 +3139,7 @@
         <v>239.73256614796367</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>759.98000001907349</v>
       </c>
@@ -3084,7 +3160,7 @@
         <v>247.46860117775674</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>789.98399996757507</v>
       </c>
@@ -3105,7 +3181,7 @@
         <v>267.50060783069966</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>819.99199986457825</v>
       </c>
@@ -3126,7 +3202,7 @@
         <v>257.80827489424314</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>849.99499988555908</v>
       </c>
@@ -3154,14 +3230,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3169,7 +3245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3192,7 +3268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9.7660000324249268</v>
       </c>
@@ -3215,7 +3291,7 @@
         <v>1.1920000006261031</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>39.759999990463257</v>
       </c>
@@ -3238,7 +3314,7 @@
         <v>1.1594864875884248</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>69.779999971389771</v>
       </c>
@@ -3261,7 +3337,7 @@
         <v>1.2320921135224374</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99.76800012588501</v>
       </c>
@@ -3284,7 +3360,7 @@
         <v>1.291287450920914</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>129.77500009536743</v>
       </c>
@@ -3307,7 +3383,7 @@
         <v>1.2060506111770688</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>159.78200006484985</v>
       </c>
@@ -3330,7 +3406,7 @@
         <v>1.2702016055540271</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>189.78400015830994</v>
       </c>
@@ -3353,7 +3429,7 @@
         <v>1.1076136922754611</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>219.79200005531311</v>
       </c>
@@ -3376,7 +3452,7 @@
         <v>1.1585508124380763</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>249.79800009727478</v>
       </c>
@@ -3399,7 +3475,7 @@
         <v>2.2296325678345816</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>279.81900000572205</v>
       </c>
@@ -3422,7 +3498,7 @@
         <v>1.975839538495253</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>309.81000018119812</v>
       </c>
@@ -3445,7 +3521,7 @@
         <v>2.985711314858742</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>339.82500004768372</v>
       </c>
@@ -3468,7 +3544,7 @@
         <v>3.1157320968050439</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>369.83500003814697</v>
       </c>
@@ -3491,7 +3567,7 @@
         <v>-3.1378696565110782</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>399.84400010108948</v>
       </c>
@@ -3514,7 +3590,7 @@
         <v>-3.4569166634864388</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>429.85000014305115</v>
       </c>
@@ -3537,7 +3613,7 @@
         <v>-2.0012854831682017</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>459.85199999809265</v>
       </c>
@@ -3560,7 +3636,7 @@
         <v>-1.9968583236556541</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>489.86700010299683</v>
       </c>
@@ -3583,7 +3659,7 @@
         <v>-1.5660039466703972</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>519.87199997901917</v>
       </c>
@@ -3606,7 +3682,7 @@
         <v>-1.6493374727724832</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>549.87199997901917</v>
       </c>
@@ -3629,7 +3705,7 @@
         <v>-1.1126442465606758</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>579.88000011444092</v>
       </c>
@@ -3652,7 +3728,7 @@
         <v>-1.0899760956484255</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>609.88700008392334</v>
       </c>
@@ -3675,7 +3751,7 @@
         <v>-0.93122303247003746</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>639.8840000629425</v>
       </c>
@@ -3698,7 +3774,7 @@
         <v>-0.83985069018974712</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>669.89300012588501</v>
       </c>
@@ -3721,7 +3797,7 @@
         <v>-0.72180475082177142</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>699.89900016784668</v>
       </c>
@@ -3744,7 +3820,7 @@
         <v>-0.99004071027156648</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>729.90400004386902</v>
       </c>
@@ -3767,7 +3843,7 @@
         <v>-0.99095610620187768</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>759.91100001335144</v>
       </c>
@@ -3790,7 +3866,7 @@
         <v>-1.0969153823807059</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>789.91799998283386</v>
       </c>
@@ -3813,7 +3889,7 @@
         <v>-1.0473995943094527</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>819.92600011825562</v>
       </c>
@@ -3836,7 +3912,7 @@
         <v>-0.90550418710361569</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>849.93200016021729</v>
       </c>
@@ -3859,7 +3935,7 @@
         <v>-0.79237434372878168</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>879.93600010871887</v>
       </c>
@@ -3882,7 +3958,7 @@
         <v>-0.62971666814864524</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>909.94000005722046</v>
       </c>
@@ -3905,7 +3981,7 @@
         <v>-0.49355078545954112</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>939.94700002670288</v>
       </c>
@@ -3928,7 +4004,7 @@
         <v>-3.3943745471413045E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>969.95300006866455</v>
       </c>
@@ -3957,14 +4033,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3972,7 +4050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3995,7 +4073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9.7230000495910645</v>
       </c>
@@ -4018,7 +4096,7 @@
         <v>8.1250004572816614E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>39.743000030517578</v>
       </c>
@@ -4041,7 +4119,7 @@
         <v>6.0594294991680224E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>69.742000102996826</v>
       </c>
@@ -4064,7 +4142,7 @@
         <v>-0.14984761162611274</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99.733999967575073</v>
       </c>
@@ -4087,7 +4165,7 @@
         <v>-6.5442058308317827E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>129.7350001335144</v>
       </c>
@@ -4110,7 +4188,7 @@
         <v>-2.2176420513222231E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>159.74000000953674</v>
       </c>
@@ -4133,7 +4211,7 @@
         <v>-7.0532512154297372E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>189.74300003051758</v>
       </c>
@@ -4156,7 +4234,7 @@
         <v>7.1190679913227473E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>219.7480001449585</v>
       </c>
@@ -4179,7 +4257,7 @@
         <v>2.9997095472033407E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>249.74200010299683</v>
       </c>
@@ -4202,7 +4280,7 @@
         <v>0.23842777748891061</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>279.75999999046326</v>
       </c>
@@ -4225,7 +4303,7 @@
         <v>0.22207109658845348</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>309.76800012588501</v>
       </c>
@@ -4248,7 +4326,7 @@
         <v>0.12953910705858077</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>339.77100014686584</v>
       </c>
@@ -4271,7 +4349,7 @@
         <v>7.7210476926172486E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>369.78400015830994</v>
       </c>
@@ -4294,7 +4372,7 @@
         <v>3.0981246452868635E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>399.79299998283386</v>
       </c>
@@ -4317,7 +4395,7 @@
         <v>7.3356152090206711E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>429.80100011825562</v>
       </c>
@@ -4340,7 +4418,7 @@
         <v>-8.4514072491405662E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>459.80700016021729</v>
       </c>
@@ -4363,7 +4441,7 @@
         <v>-1.6708965631115721E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>489.81200003623962</v>
       </c>
@@ -4386,7 +4464,7 @@
         <v>-3.5903829988315344E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>519.82400012016296</v>
       </c>
@@ -4409,7 +4487,7 @@
         <v>-8.078903917654956E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>549.82100009918213</v>
       </c>
@@ -4432,7 +4510,7 @@
         <v>-0.18892627817842608</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>579.8270001411438</v>
       </c>
@@ -4455,7 +4533,7 @@
         <v>-0.12050039065524047</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>609.83400011062622</v>
       </c>
@@ -4478,7 +4556,7 @@
         <v>-0.11088380902032677</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>639.83800005912781</v>
       </c>
@@ -4501,7 +4579,7 @@
         <v>-8.3532279695862188E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>669.84200000762939</v>
       </c>
@@ -4524,7 +4602,7 @@
         <v>-0.22798470573493748</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>699.84899997711182</v>
       </c>
@@ -4547,7 +4625,7 @@
         <v>-0.13300717846349144</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>729.86199998855591</v>
       </c>
@@ -4570,7 +4648,7 @@
         <v>-0.17036351026591262</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>759.86700010299683</v>
       </c>
@@ -4593,7 +4671,7 @@
         <v>-0.14681862381777785</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>789.87100005149841</v>
       </c>
@@ -4616,7 +4694,7 @@
         <v>-0.1367122904098782</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>819.87400007247925</v>
       </c>
@@ -4639,7 +4717,7 @@
         <v>-0.16175792524193933</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>849.88199996948242</v>
       </c>
@@ -4662,7 +4740,7 @@
         <v>-0.14746373763173987</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>879.88900017738342</v>
       </c>
@@ -4685,7 +4763,7 @@
         <v>-0.13094421682184196</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>909.90300011634827</v>
       </c>
@@ -4708,7 +4786,7 @@
         <v>-0.24758821172385959</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>939.90900015830994</v>
       </c>
@@ -4731,7 +4809,7 @@
         <v>-0.17668620568772211</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>969.91600012779236</v>
       </c>
@@ -4754,7 +4832,7 @@
         <v>-0.16737030312305137</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>999.92900013923645</v>
       </c>
@@ -4777,7 +4855,7 @@
         <v>-0.15814707184605878</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1029.9350001811981</v>
       </c>
@@ -4800,7 +4878,7 @@
         <v>-0.18859302439168721</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1059.9430000782013</v>
       </c>
@@ -4823,7 +4901,7 @@
         <v>-0.16957083212574645</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1089.9480001926422</v>
       </c>
@@ -4846,7 +4924,7 @@
         <v>5.5487852176064528E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1119.9460000991821</v>
       </c>
@@ -4869,7 +4947,7 @@
         <v>6.1300777403434474E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1149.9650001525879</v>
       </c>
@@ -4892,7 +4970,7 @@
         <v>5.7165061717037127E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1179.9470000267029</v>
       </c>
@@ -4915,7 +4993,7 @@
         <v>7.1784202541383485E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1209.9680001735687</v>
       </c>
@@ -4938,7 +5016,7 @@
         <v>7.3054389864752656E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1239.9760000705719</v>
       </c>
@@ -4961,7 +5039,7 @@
         <v>8.3785199289953288E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1269.9750001430511</v>
       </c>
